--- a/biology/Zoologie/Erythrolamprus_melanotus/Erythrolamprus_melanotus.xlsx
+++ b/biology/Zoologie/Erythrolamprus_melanotus/Erythrolamprus_melanotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus melanotus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus melanotus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Colombie ;
 au Venezuela dans l'État de Cojedes ainsi que sur l'île Margarita ;
 à Trinité-et-Tobago ;
@@ -545,9 +559,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 août 2013) :
 Erythrolamprus melanotus lamari (Dixon &amp; Michaud, 1992)
 Erythrolamprus melanotus melanotus (Shaw, 1802)
 Erythrolamprus melanotus nesos (Dixon &amp; Michaud, 1992)</t>
@@ -578,7 +594,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dixon &amp; Michaud, 1992 : Shaw's black-backed snake (Liophis melanotus) (Serpentes: Colubridae) of Northern South America. Journal of Herpetology, vol. 26, no 3, p. 250-259.
 Shaw, 1802 : General Zoology or Systematic Natural History, G. Kearsley, Thomas Davison, London, vol. 3, no 2, p. 313-615 (texte intégral).</t>
